--- a/User_Study/HumanEval.xlsx
+++ b/User_Study/HumanEval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils.kluewer/Documents/GitHub/Emotion-Classification-Langgraph/User_Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C148E42D-6038-1141-9D44-95ED65779E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CFE230-A8B7-F842-BBAD-72E52D129AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{D15229EB-0B30-B14D-889A-A69ED688DDA1}"/>
+    <workbookView xWindow="8800" yWindow="500" windowWidth="33600" windowHeight="19320" xr2:uid="{D15229EB-0B30-B14D-889A-A69ED688DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Metrics</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Fluency</t>
   </si>
   <si>
-    <t>Grammer</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -95,20 +92,136 @@
     <t>Privacy</t>
   </si>
   <si>
-    <t>Hallucinations</t>
-  </si>
-  <si>
     <t>Human</t>
   </si>
   <si>
     <t>LLM</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Emotion Category boundaries are inherently fuzzy, no 'pure form'</t>
+  </si>
+  <si>
+    <t>Is the LLM generated response accurate?</t>
+  </si>
+  <si>
+    <t>Is the LLM generated response correct in comprehension?</t>
+  </si>
+  <si>
+    <t>Does the LLM generated response have the reasoning mirroring the context?</t>
+  </si>
+  <si>
+    <t>Is the LLM generated response helpful to the user?</t>
+  </si>
+  <si>
+    <t>Does the LLM generated response cover all the topics needed from the context?</t>
+  </si>
+  <si>
+    <t>Does the LLM generated response cover all the key aspects of the response based on the context?</t>
+  </si>
+  <si>
+    <t>Is the LLM generated response missing any significant parts of the desired response?</t>
+  </si>
+  <si>
+    <t>Is the LLM generated response fluent?</t>
+  </si>
+  <si>
+    <t>Is the LLM generated response grammatically correct?</t>
+  </si>
+  <si>
+    <t>Is the LLM generated response well organized?</t>
+  </si>
+  <si>
+    <t>Does the LLM generated response have any amount of biasness?</t>
+  </si>
+  <si>
+    <t>Does the LLM generated response have any amount of toxicity?</t>
+  </si>
+  <si>
+    <t>Does the LLM generated response violate any privacy?</t>
+  </si>
+  <si>
+    <t>Does the LLM generated response have any amount of hallucinations?</t>
+  </si>
+  <si>
+    <t>Is the generated response distinguishable from human response?</t>
+  </si>
+  <si>
+    <t>How does the generated response compare with the human response?</t>
+  </si>
+  <si>
+    <t>How does the generated response compare to the other LLM responses?</t>
+  </si>
+  <si>
+    <t>https://www.oed.com/</t>
+  </si>
+  <si>
+    <t>For Word definitons</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>LLM-as-a-Judge</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://www.merriam-webster.com/dictionary/comprehension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+: the use of reason
+especially : the drawing of inferences or conclusions through the use of reason 
+: an instance of the use of reason : argument</t>
+  </si>
+  <si>
+    <t>the act or action of grasping with the intellect : understanding 
+: knowledge gained by comprehending
+: the capacity for understanding fully</t>
+  </si>
+  <si>
+    <t>: of service or assistance : useful</t>
+  </si>
+  <si>
+    <t>fluency : the quality or state of being fluent 
+fluent : capable of using a language easily and accurately 
+: effortlessly smooth and flowing 
+: having or showing mastery of a subject or skill</t>
+  </si>
+  <si>
+    <t>Grammar</t>
+  </si>
+  <si>
+    <t>: having a formal organization to coordinate and carry out activities</t>
+  </si>
+  <si>
+    <t>Hallucinations (Confabulation)</t>
+  </si>
+  <si>
+    <t>Answer RQ1</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Confabulation, in the context of Large Language Models (LLMs), is defined as a confident but misleading output generated with the intention of accurately fulfilling the user's prompt.  The term "intention" is used metaphorically here, referring to the LLM's ability to generate coherent and contextually relevant text based on the input it receives, even if that text is factually incorrect.  It's a broad category encompassing many incorrect outputs that don't fit neatly into other classifications of LLM errors.  In humans, confabulation refers to the production of false memories without the intent to deceive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Study Feasable </t>
+  </si>
+  <si>
+    <t>First Ask, do you know out LLM output -&gt; How does it comapre ….</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,13 +229,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,16 +261,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,136 +613,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617D4991-D907-C247-9196-A1DCB22714E8}">
-  <dimension ref="B3:C19"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" customWidth="1"/>
+    <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="68" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
-        <v>21</v>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{D0C28A57-BB14-6649-A89E-4DCA454AA3A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/User_Study/HumanEval.xlsx
+++ b/User_Study/HumanEval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils.kluewer/Documents/GitHub/Emotion-Classification-Langgraph/User_Study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilsk\Documents\GitHub\Emotion-Classification-Langgraph\User_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CFE230-A8B7-F842-BBAD-72E52D129AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A519A9-05A4-4F28-851B-7EDCAAA0C057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="500" windowWidth="33600" windowHeight="19320" xr2:uid="{D15229EB-0B30-B14D-889A-A69ED688DDA1}"/>
+    <workbookView xWindow="1845" yWindow="630" windowWidth="28800" windowHeight="15345" xr2:uid="{D15229EB-0B30-B14D-889A-A69ED688DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,14 +270,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,31 +615,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617D4991-D907-C247-9196-A1DCB22714E8}">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="78.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="78.125" customWidth="1"/>
     <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.33203125" customWidth="1"/>
+    <col min="9" max="9" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -659,8 +659,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -673,8 +673,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
+    <row r="5" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -684,15 +684,15 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+    <row r="6" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -702,12 +702,12 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -721,8 +721,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>52</v>
       </c>
@@ -730,8 +730,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
@@ -744,8 +744,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -756,8 +756,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -768,8 +768,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -784,12 +784,12 @@
       <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
       <c r="C13" t="s">
         <v>49</v>
       </c>
@@ -803,8 +803,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -821,8 +821,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
@@ -838,8 +838,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -853,8 +853,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -868,8 +868,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -883,8 +883,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
@@ -900,14 +900,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
       <c r="F20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>19</v>
       </c>
